--- a/InputData/trans/BLP/BAU LCFS Perc.xlsx
+++ b/InputData/trans/BLP/BAU LCFS Perc.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MA/trans/BLP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asonaike/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MA/trans/BLP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A86852-B421-7547-B569-EFB15660C07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C719FE-48F5-6441-8C3F-9E2D4F57E6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="760" windowWidth="13040" windowHeight="16900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="CA" sheetId="4" r:id="rId2"/>
+    <sheet name="StatePolicies" sheetId="4" r:id="rId2"/>
     <sheet name="BLP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,8 +32,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="131">
   <si>
     <t>BLP BAU LCFS Percentage</t>
   </si>
@@ -372,12 +394,71 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>LCFS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>California Calcs</t>
+  </si>
+  <si>
+    <t>Washington Calcs</t>
+  </si>
+  <si>
+    <t>https://ecology.wa.gov/air-climate/reducing-greenhouse-gas-emissions/clean-fuel-standard</t>
+  </si>
+  <si>
+    <t>Washington Department of Ecology</t>
+  </si>
+  <si>
+    <t>Clean Fuel Standard</t>
+  </si>
+  <si>
+    <t>"The Clean Fuel Standard law requires fuel suppliers to gradually reduce the carbon intensity of transportation fuels to 20% below 2017 levels by 2034."</t>
+  </si>
+  <si>
+    <t>2034 target</t>
+  </si>
+  <si>
+    <t>start year 2022</t>
+  </si>
+  <si>
+    <t>Annual increase</t>
+  </si>
+  <si>
+    <t>Oregon Clean Fuels Program</t>
+  </si>
+  <si>
+    <t>Clean Fuels Program</t>
+  </si>
+  <si>
+    <t>https://olis.oregonlegislature.gov/liz/2021R1/Downloads/MeasureDocument/HB2062/Enrolled</t>
+  </si>
+  <si>
+    <t>Oregon Calcs</t>
+  </si>
+  <si>
+    <t>2026 target</t>
+  </si>
+  <si>
+    <t>start year 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -482,7 +563,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -526,6 +607,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -549,7 +710,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -565,9 +726,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -600,13 +777,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>9914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -632,6 +809,50 @@
         <a:xfrm>
           <a:off x="2438400" y="187325"/>
           <a:ext cx="5138737" cy="3756414"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>164036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50534</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65BAB1D-F696-DD13-7011-61938522776B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692400" y="5129736"/>
+          <a:ext cx="5791200" cy="2743998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -932,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -950,7 +1171,7 @@
         <v>53</v>
       </c>
       <c r="C1" s="9">
-        <v>45296</v>
+        <v>45699</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>13</v>
@@ -1047,8 +1268,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
+      <c r="B10" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>29</v>
@@ -1058,6 +1279,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
@@ -1066,6 +1290,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
@@ -1074,6 +1301,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
       <c r="E13" s="8" t="s">
         <v>35</v>
       </c>
@@ -1098,6 +1328,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="E16" s="8" t="s">
         <v>41</v>
       </c>
@@ -1106,6 +1340,9 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
       <c r="E17" s="8" t="s">
         <v>43</v>
       </c>
@@ -1114,6 +1351,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="E18" s="8" t="s">
         <v>45</v>
       </c>
@@ -1138,6 +1378,9 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>51</v>
       </c>
@@ -1409,41 +1652,6220 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{4433714A-5DC6-A046-80C4-E721A65849C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C345DB-5104-4418-B999-526D8ADFEBDA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:BA52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="M2" s="14"/>
+      <c r="P2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2">
+        <v>2016</v>
+      </c>
+      <c r="T2">
+        <v>2017</v>
+      </c>
+      <c r="U2">
+        <v>2018</v>
+      </c>
+      <c r="V2">
+        <v>2019</v>
+      </c>
+      <c r="W2">
+        <v>2020</v>
+      </c>
+      <c r="X2">
+        <v>2021</v>
+      </c>
+      <c r="Y2">
+        <v>2022</v>
+      </c>
+      <c r="Z2">
+        <v>2023</v>
+      </c>
+      <c r="AA2">
+        <v>2024</v>
+      </c>
+      <c r="AB2">
+        <v>2025</v>
+      </c>
+      <c r="AC2">
+        <v>2026</v>
+      </c>
+      <c r="AD2">
+        <v>2027</v>
+      </c>
+      <c r="AE2">
+        <v>2028</v>
+      </c>
+      <c r="AF2">
+        <v>2029</v>
+      </c>
+      <c r="AG2">
+        <v>2030</v>
+      </c>
+      <c r="AH2">
+        <v>2031</v>
+      </c>
+      <c r="AI2">
+        <v>2032</v>
+      </c>
+      <c r="AJ2">
+        <v>2033</v>
+      </c>
+      <c r="AK2">
+        <v>2034</v>
+      </c>
+      <c r="AL2">
+        <v>2035</v>
+      </c>
+      <c r="AM2">
+        <v>2036</v>
+      </c>
+      <c r="AN2">
+        <v>2037</v>
+      </c>
+      <c r="AO2">
+        <v>2038</v>
+      </c>
+      <c r="AP2">
+        <v>2039</v>
+      </c>
+      <c r="AQ2">
+        <v>2040</v>
+      </c>
+      <c r="AR2">
+        <v>2041</v>
+      </c>
+      <c r="AS2">
+        <v>2042</v>
+      </c>
+      <c r="AT2">
+        <v>2043</v>
+      </c>
+      <c r="AU2">
+        <v>2044</v>
+      </c>
+      <c r="AV2">
+        <v>2045</v>
+      </c>
+      <c r="AW2">
+        <v>2046</v>
+      </c>
+      <c r="AX2">
+        <v>2047</v>
+      </c>
+      <c r="AY2">
+        <v>2048</v>
+      </c>
+      <c r="AZ2">
+        <v>2049</v>
+      </c>
+      <c r="BA2">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="P3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s">
+        <v>114</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1.2500000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="M4" s="14"/>
+      <c r="P4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="P5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>114</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
+      <c r="M6" s="14"/>
+      <c r="P6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R6" t="s">
+        <v>114</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="P7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" t="s">
+        <v>115</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="V7" s="23">
+        <f>U7+StatePolicies!$C$4</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="W7" s="23">
+        <f>V7+StatePolicies!$C$4</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="X7" s="23">
+        <f>W7+StatePolicies!$C$4</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="Y7" s="23">
+        <f>X7+StatePolicies!$C$4</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="Z7" s="23">
+        <f>Y7+StatePolicies!$C$4</f>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="AA7" s="23">
+        <f>Z7+StatePolicies!$C$4</f>
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AB7" s="23">
+        <f>AA7+StatePolicies!$C$4</f>
+        <v>0.13749999999999998</v>
+      </c>
+      <c r="AC7" s="23">
+        <f>AB7+StatePolicies!$C$4</f>
+        <v>0.15</v>
+      </c>
+      <c r="AD7" s="23">
+        <f>AC7+StatePolicies!$C$4</f>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="AE7" s="23">
+        <f>AD7+StatePolicies!$C$4</f>
+        <v>0.17500000000000002</v>
+      </c>
+      <c r="AF7" s="23">
+        <f>AE7+StatePolicies!$C$4</f>
+        <v>0.18750000000000003</v>
+      </c>
+      <c r="AG7" s="19">
+        <f>AF7+StatePolicies!$C$4</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AH7" s="20">
+        <f t="shared" ref="AH7:BA7" si="0">AG7</f>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="P8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>114</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="P9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="M10" s="14"/>
+      <c r="P10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s">
+        <v>114</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="P11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="P12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="P13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="P14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" t="s">
+        <v>114</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="P15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="R15" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="M16" s="14"/>
+      <c r="P16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s">
+        <v>114</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0</v>
+      </c>
+      <c r="AY16">
+        <v>0</v>
+      </c>
+      <c r="AZ16">
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="P17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" t="s">
+        <v>114</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="M18" s="14"/>
+      <c r="P18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="P19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>0</v>
+      </c>
+      <c r="AZ19">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="M20" s="14"/>
+      <c r="P20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="R20" t="s">
+        <v>114</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0</v>
+      </c>
+      <c r="AY20">
+        <v>0</v>
+      </c>
+      <c r="AZ20">
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="P21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" t="s">
+        <v>114</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
+      </c>
+      <c r="AW21">
+        <v>0</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>0</v>
+      </c>
+      <c r="AZ21">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="M22" s="14"/>
+      <c r="P22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" t="s">
+        <v>114</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="P23" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R23" t="s">
+        <v>114</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
+      </c>
+      <c r="AW23">
+        <v>0</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>0</v>
+      </c>
+      <c r="AZ23">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="17"/>
+      <c r="P24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R24" t="s">
+        <v>114</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
+      </c>
+      <c r="AW24">
+        <v>0</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>0</v>
+      </c>
+      <c r="AZ24">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="P25" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R25" t="s">
+        <v>114</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
+      </c>
+      <c r="AW25">
+        <v>0</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>0</v>
+      </c>
+      <c r="AZ25">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26" t="s">
+        <v>114</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12"/>
+      <c r="P27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="R27" t="s">
+        <v>114</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
+      </c>
+      <c r="AW27">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="P28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="R28" t="s">
+        <v>114</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29">
+        <v>0.2</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="P29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R29" t="s">
+        <v>114</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="P30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="R30" t="s">
+        <v>114</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>0</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <f>C29/12</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="P31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="R31" t="s">
+        <v>114</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A32" s="13"/>
+      <c r="M32" s="14"/>
+      <c r="P32" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="R32" t="s">
+        <v>114</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A33" s="13"/>
+      <c r="M33" s="14"/>
+      <c r="P33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="R33" t="s">
+        <v>114</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="M34" s="14"/>
+      <c r="P34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R34" t="s">
+        <v>114</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A35" s="13"/>
+      <c r="M35" s="14"/>
+      <c r="P35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R35" t="s">
+        <v>114</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A36" s="13"/>
+      <c r="M36" s="14"/>
+      <c r="P36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R36" t="s">
+        <v>114</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A37" s="13"/>
+      <c r="M37" s="14"/>
+      <c r="P37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R37" t="s">
+        <v>114</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A38" s="13"/>
+      <c r="M38" s="14"/>
+      <c r="P38" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="R38" t="s">
+        <v>114</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>0</v>
+      </c>
+      <c r="AZ38">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
+      <c r="M39" s="14"/>
+      <c r="P39" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="R39" t="s">
+        <v>115</v>
+      </c>
+      <c r="S39" s="27">
+        <f>C49</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="28">
+        <f>S39+$C50</f>
+        <v>0.01</v>
+      </c>
+      <c r="U39" s="28">
+        <f t="shared" ref="U39:AB39" si="1">T39+$C50</f>
+        <v>0.02</v>
+      </c>
+      <c r="V39" s="28">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="W39" s="28">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="X39" s="28">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y39" s="28">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="Z39" s="28">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AA39" s="28">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="AB39" s="28">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="AC39" s="29">
+        <f>C48</f>
+        <v>0.1</v>
+      </c>
+      <c r="AD39">
+        <f>$AC39</f>
+        <v>0.1</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" ref="AE39:BA39" si="2">$AC39</f>
+        <v>0.1</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AG39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AI39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AL39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AM39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AN39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AO39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AP39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AQ39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AR39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AS39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AT39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AU39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AV39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AW39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AX39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AY39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="AZ39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="BA39">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A40" s="13"/>
+      <c r="M40" s="14"/>
+      <c r="P40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R40" t="s">
+        <v>114</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
+      <c r="M41" s="14"/>
+      <c r="P41" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R41" t="s">
+        <v>114</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
+      </c>
+      <c r="AW41">
+        <v>0</v>
+      </c>
+      <c r="AX41">
+        <v>0</v>
+      </c>
+      <c r="AY41">
+        <v>0</v>
+      </c>
+      <c r="AZ41">
+        <v>0</v>
+      </c>
+      <c r="BA41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
+      <c r="M42" s="14"/>
+      <c r="P42" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="R42" t="s">
+        <v>114</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
+      </c>
+      <c r="AJ42">
+        <v>0</v>
+      </c>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>0</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="17"/>
+      <c r="P43" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="R43" t="s">
+        <v>114</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
+      <c r="AW43">
+        <v>0</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="P44" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R44" t="s">
+        <v>114</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0</v>
+      </c>
+      <c r="AK44">
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>0</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="P45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R45" t="s">
+        <v>114</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="R46" t="s">
+        <v>114</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="P47" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R47" t="s">
+        <v>114</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48">
+        <v>0.1</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R48" t="s">
+        <v>114</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="I49" s="26"/>
+      <c r="P49" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q49" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R49" t="s">
+        <v>115</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49" s="24">
+        <f t="shared" ref="U49:W49" si="3">$Y49</f>
+        <v>0</v>
+      </c>
+      <c r="V49" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W49" s="24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X49" s="24">
+        <f>$Y49</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="25">
+        <f>C30</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="22">
+        <f>Y49+$C31</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="AA49" s="22">
+        <f t="shared" ref="AA49:AJ49" si="4">Z49+$C31</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AB49" s="22">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC49" s="22">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AD49" s="22">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE49" s="22">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AF49" s="22">
+        <f t="shared" si="4"/>
+        <v>0.11666666666666665</v>
+      </c>
+      <c r="AG49" s="22">
+        <f t="shared" si="4"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AH49" s="22">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="AI49" s="22">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AJ49" s="22">
+        <f t="shared" si="4"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="AK49" s="20">
+        <f>C29</f>
+        <v>0.2</v>
+      </c>
+      <c r="AL49">
+        <f t="shared" ref="AL49" si="5">AK49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AM49">
+        <f t="shared" ref="AM49" si="6">AL49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AN49">
+        <f t="shared" ref="AN49" si="7">AM49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AO49">
+        <f t="shared" ref="AO49" si="8">AN49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AP49">
+        <f t="shared" ref="AP49" si="9">AO49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AQ49">
+        <f t="shared" ref="AQ49" si="10">AP49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AR49">
+        <f t="shared" ref="AR49" si="11">AQ49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AS49">
+        <f t="shared" ref="AS49" si="12">AR49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AT49">
+        <f t="shared" ref="AT49" si="13">AS49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AU49">
+        <f t="shared" ref="AU49" si="14">AT49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AV49">
+        <f t="shared" ref="AV49" si="15">AU49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AW49">
+        <f t="shared" ref="AW49" si="16">AV49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AX49">
+        <f t="shared" ref="AX49" si="17">AW49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AY49">
+        <f t="shared" ref="AY49" si="18">AX49</f>
+        <v>0.2</v>
+      </c>
+      <c r="AZ49">
+        <f t="shared" ref="AZ49" si="19">AY49</f>
+        <v>0.2</v>
+      </c>
+      <c r="BA49">
+        <f t="shared" ref="BA49" si="20">AZ49</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50">
+        <f>C48/10</f>
+        <v>0.01</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="R50" t="s">
+        <v>114</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="P51" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="R51" t="s">
+        <v>114</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>0</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="P52" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="R52" t="s">
+        <v>114</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>0</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>0</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>0</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>0</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1459,8 +7881,8 @@
   </sheetPr>
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1573,136 +7995,136 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11">
-        <f>IF(About!B2="ca",0.05,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <f>IF(About!$B$2="ca",B2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <f>IF(About!$B$2="ca",C2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <f>IF(About!$B$2="ca",D2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="12">
-        <f>IF(About!$B$2="ca",E2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="12">
-        <f>IF(About!$B$2="ca",F2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="12">
-        <f>IF(About!$B$2="ca",G2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <f>IF(About!$B$2="ca",H2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="12">
-        <f>IF(About!$B$2="ca",I2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="12">
-        <f>IF(About!$B$2="ca",J2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="12">
-        <f>IF(About!$B$2="ca",K2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="12">
-        <f>IF(About!$B$2="ca",L2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="12">
-        <f>IF(About!$B$2="ca",M2+CA!$C$3,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="13">
-        <f t="shared" ref="O2:AH2" si="0">N2</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="0"/>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2">_xlfn.XLOOKUP(BLP!B1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="C2" cm="1">
+        <f t="array" ref="C2">_xlfn.XLOOKUP(BLP!C1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2">_xlfn.XLOOKUP(BLP!D1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="E2" cm="1">
+        <f t="array" ref="E2">_xlfn.XLOOKUP(BLP!E1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" cm="1">
+        <f t="array" ref="F2">_xlfn.XLOOKUP(BLP!F1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">_xlfn.XLOOKUP(BLP!G1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="H2" cm="1">
+        <f t="array" ref="H2">_xlfn.XLOOKUP(BLP!H1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" cm="1">
+        <f t="array" ref="I2">_xlfn.XLOOKUP(BLP!I1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="J2" cm="1">
+        <f t="array" ref="J2">_xlfn.XLOOKUP(BLP!J1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="K2" cm="1">
+        <f t="array" ref="K2">_xlfn.XLOOKUP(BLP!K1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2">_xlfn.XLOOKUP(BLP!L1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="M2" cm="1">
+        <f t="array" ref="M2">_xlfn.XLOOKUP(BLP!M1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="N2" cm="1">
+        <f t="array" ref="N2">_xlfn.XLOOKUP(BLP!N1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="O2" cm="1">
+        <f t="array" ref="O2">_xlfn.XLOOKUP(BLP!O1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="P2" cm="1">
+        <f t="array" ref="P2">_xlfn.XLOOKUP(BLP!P1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2">_xlfn.XLOOKUP(BLP!Q1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="R2" cm="1">
+        <f t="array" ref="R2">_xlfn.XLOOKUP(BLP!R1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" ref="S2">_xlfn.XLOOKUP(BLP!S1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2">_xlfn.XLOOKUP(BLP!T1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="U2" cm="1">
+        <f t="array" ref="U2">_xlfn.XLOOKUP(BLP!U1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="V2" cm="1">
+        <f t="array" ref="V2">_xlfn.XLOOKUP(BLP!V1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="W2" cm="1">
+        <f t="array" ref="W2">_xlfn.XLOOKUP(BLP!W1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="X2" cm="1">
+        <f t="array" ref="X2">_xlfn.XLOOKUP(BLP!X1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" cm="1">
+        <f t="array" ref="Y2">_xlfn.XLOOKUP(BLP!Y1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" cm="1">
+        <f t="array" ref="Z2">_xlfn.XLOOKUP(BLP!Z1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" cm="1">
+        <f t="array" ref="AA2">_xlfn.XLOOKUP(BLP!AA1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="AB2" cm="1">
+        <f t="array" ref="AB2">_xlfn.XLOOKUP(BLP!AB1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="AC2" cm="1">
+        <f t="array" ref="AC2">_xlfn.XLOOKUP(BLP!AC1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="AD2" cm="1">
+        <f t="array" ref="AD2">_xlfn.XLOOKUP(BLP!AD1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="AE2" cm="1">
+        <f t="array" ref="AE2">_xlfn.XLOOKUP(BLP!AE1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="AF2" cm="1">
+        <f t="array" ref="AF2">_xlfn.XLOOKUP(BLP!AF1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="AG2" cm="1">
+        <f t="array" ref="AG2">_xlfn.XLOOKUP(BLP!AG1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" cm="1">
+        <f t="array" ref="AH2">_xlfn.XLOOKUP(BLP!AH1, StatePolicies!$U$2:$BA$2, _xlfn.XLOOKUP(About!$B$2, StatePolicies!$Q$3:$Q$52, StatePolicies!$U$3:$BA$52))</f>
         <v>0</v>
       </c>
     </row>
